--- a/Lab3.xlsx
+++ b/Lab3.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winia\OneDrive\Pulpit\Studia\I semestr\Fizyka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41770FED-A4A6-4306-857D-0874C8C499C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC63A387-CC69-4795-B02D-C819A1AB39FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="24135" windowHeight="20985" xr2:uid="{5368024D-823C-4F30-809E-849CCABC4E9F}"/>
+    <workbookView xWindow="6210" yWindow="3330" windowWidth="28800" windowHeight="15330" activeTab="1" xr2:uid="{5368024D-823C-4F30-809E-849CCABC4E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="LAB3" sheetId="1" r:id="rId1"/>
+    <sheet name="LAB4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>U</t>
   </si>
@@ -341,6 +342,24 @@
   </si>
   <si>
     <t>Cw</t>
+  </si>
+  <si>
+    <t>Numer pomiaru</t>
+  </si>
+  <si>
+    <t>L [m]</t>
+  </si>
+  <si>
+    <t>t1 [s]</t>
+  </si>
+  <si>
+    <t>t2 [s]</t>
+  </si>
+  <si>
+    <t>t2-t1 [s]</t>
+  </si>
+  <si>
+    <t>v [m/s]</t>
   </si>
 </sst>
 </file>
@@ -403,7 +422,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -426,11 +445,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,10 +500,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F42395-D5C5-4F51-BEBB-35000E4F5528}">
   <dimension ref="A2:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -868,18 +942,18 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>900</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="e">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="e">
         <f>(M4/$Q$4)-($O$4/$D$4)</f>
         <v>#DIV/0!</v>
       </c>
@@ -908,16 +982,16 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="e">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="e">
         <f t="shared" ref="K5:K10" si="0">(M5/$Q$4)-($O$4/$D$4)</f>
         <v>#DIV/0!</v>
       </c>
@@ -938,16 +1012,16 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5" t="e">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -969,16 +1043,16 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5" t="e">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1000,16 +1074,16 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5" t="e">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1031,16 +1105,16 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="e">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1061,16 +1135,16 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="e">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1127,4 +1201,497 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F3519F-FBE0-42CD-83F9-C404C49BF1A3}">
+  <dimension ref="C2:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8">
+        <f>F3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="e">
+        <f>$D$3/G3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="7" t="e">
+        <f>POWER(H3-$K$3,2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="7" t="e">
+        <f>SUM(H3:H6,H8:H11,H13:H16,H18:H21,H23:H26)/20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="7" t="e">
+        <f>SUM(J3:J6,J8:J11,J13:J16,J18:J21,J23:J26)/380</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G6" si="0">F4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="e">
+        <f t="shared" ref="H4:H6" si="1">$D$3/G4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="7" t="e">
+        <f t="shared" ref="J4:J26" si="2">POWER(H4-$K$3,2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8">
+        <f>F8-E8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="e">
+        <f>$D$8/G8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="8">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
+        <f t="shared" ref="G9:G11" si="3">F9-E9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="e">
+        <f t="shared" ref="H9:H11" si="4">$D$8/G9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="8">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="8">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="8">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8">
+        <f>F13-E13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="e">
+        <f>$D$13/G13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="8">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
+        <f t="shared" ref="G14:G16" si="5">F14-E14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="e">
+        <f t="shared" ref="H14:H16" si="6">$D$13/G14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="8">
+        <v>11</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="8">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="8">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <f>F18-E18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="e">
+        <f>$D$18/G18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="8">
+        <v>14</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <f t="shared" ref="G19:G21" si="7">F19-E19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="e">
+        <f t="shared" ref="H19:H21" si="8">$D$18/G19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="8">
+        <v>15</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="8">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="8">
+        <v>17</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8">
+        <f>F23-E23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="e">
+        <f>$D$23/G23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="8">
+        <v>18</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
+        <f t="shared" ref="G24:G26" si="9">F24-E24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="e">
+        <f t="shared" ref="H24:H26" si="10">$D$23/G24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="8">
+        <v>19</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="8">
+        <v>20</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D18:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>